--- a/hybrid_searchTesting/timings_40_question_RRF.xlsx
+++ b/hybrid_searchTesting/timings_40_question_RRF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krisztina_PC\flask-chatbot\hybrid_searchTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F5FEEC-9ED2-4A18-A6DB-8C68E07D81C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D140503-E143-4081-A79B-E88536D3C8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,6 +138,9 @@
     <t>Mit jelent a BIP?</t>
   </si>
   <si>
+    <t>Mi a Sapientia jelentése?</t>
+  </si>
+  <si>
     <t>Havi hány eurot kapnak a a hosszú mobilitás esetén a hátrányos helyzetű hallgatok?</t>
   </si>
   <si>
@@ -171,6 +174,9 @@
     <t>Hány részből áll a LinguaSap Nyelvvizsga?</t>
   </si>
   <si>
+    <t>Mikor és melyik teremben van a szoftverfejlesztés záróvizsga időpontja?</t>
+  </si>
+  <si>
     <t>Hány szobatípus van a bentlakásban?</t>
   </si>
   <si>
@@ -193,12 +199,6 @@
   </si>
   <si>
     <t>top_k darab számának átlaga</t>
-  </si>
-  <si>
-    <t>Mikor és melyik teremben van a szoftverfejlesztés záróvizsga időpontja?</t>
-  </si>
-  <si>
-    <t>Mi a Sapientia jelentése?</t>
   </si>
 </sst>
 </file>
@@ -217,7 +217,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -564,9 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -601,22 +598,22 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>2.42</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="C2">
-        <v>1.262</v>
+        <v>2.2549999999999999</v>
       </c>
       <c r="D2">
-        <v>0.65800000000000003</v>
+        <v>0.624</v>
       </c>
       <c r="E2">
-        <v>1.589</v>
+        <v>1.6539999999999999</v>
       </c>
       <c r="F2">
-        <v>5.9290000000000003</v>
+        <v>4.9189999999999996</v>
       </c>
       <c r="G2">
-        <v>0.91900000000000004</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="H2">
         <v>39</v>
@@ -627,25 +624,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.52500000000000002</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="C3">
-        <v>0.38400000000000001</v>
+        <v>2.294</v>
       </c>
       <c r="D3">
-        <v>0.61799999999999999</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="E3">
-        <v>1.105</v>
+        <v>1.2170000000000001</v>
       </c>
       <c r="F3">
-        <v>2.6320000000000001</v>
+        <v>4.9569999999999999</v>
       </c>
       <c r="G3">
-        <v>0.90500000000000003</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="H3">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -653,19 +650,19 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.52800000000000002</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="C4">
-        <v>0.34300000000000003</v>
+        <v>2.2330000000000001</v>
       </c>
       <c r="D4">
-        <v>0.626</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E4">
-        <v>1.3380000000000001</v>
+        <v>1.2050000000000001</v>
       </c>
       <c r="F4">
-        <v>2.835</v>
+        <v>4.3730000000000002</v>
       </c>
       <c r="G4">
         <v>0.70299999999999996</v>
@@ -679,22 +676,22 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.315</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="C5">
-        <v>0.48299999999999998</v>
+        <v>2.2919999999999998</v>
       </c>
       <c r="D5">
-        <v>0.623</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="E5">
-        <v>1.4890000000000001</v>
+        <v>1.5649999999999999</v>
       </c>
       <c r="F5">
-        <v>2.91</v>
+        <v>4.7629999999999999</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="H5">
         <v>34</v>
@@ -705,22 +702,22 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.39</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="C6">
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="D6">
         <v>0.54800000000000004</v>
       </c>
-      <c r="D6">
-        <v>0.56799999999999995</v>
-      </c>
       <c r="E6">
-        <v>1.4410000000000001</v>
+        <v>1.444</v>
       </c>
       <c r="F6">
-        <v>2.948</v>
+        <v>4.8659999999999997</v>
       </c>
       <c r="G6">
-        <v>0.58599999999999997</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -731,19 +728,19 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.49299999999999999</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="C7">
-        <v>0.33300000000000002</v>
+        <v>2.5779999999999998</v>
       </c>
       <c r="D7">
-        <v>0.56899999999999995</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="E7">
-        <v>1.5780000000000001</v>
+        <v>1.6180000000000001</v>
       </c>
       <c r="F7">
-        <v>2.9729999999999999</v>
+        <v>5.1379999999999999</v>
       </c>
       <c r="G7">
         <v>0.72499999999999998</v>
@@ -757,22 +754,22 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.29399999999999998</v>
+        <v>0.317</v>
       </c>
       <c r="C8">
-        <v>0.42799999999999999</v>
+        <v>2.8180000000000001</v>
       </c>
       <c r="D8">
-        <v>0.64700000000000002</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="E8">
-        <v>1.44</v>
+        <v>1.5029999999999999</v>
       </c>
       <c r="F8">
-        <v>2.8090000000000002</v>
+        <v>5.2460000000000004</v>
       </c>
       <c r="G8">
-        <v>0.752</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="H8">
         <v>37</v>
@@ -783,22 +780,22 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.29599999999999999</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="C9">
-        <v>0.42599999999999999</v>
+        <v>2.3159999999999998</v>
       </c>
       <c r="D9">
-        <v>0.621</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="E9">
-        <v>1.3520000000000001</v>
+        <v>1.341</v>
       </c>
       <c r="F9">
-        <v>2.6960000000000002</v>
+        <v>4.6070000000000002</v>
       </c>
       <c r="G9">
-        <v>0.85399999999999998</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>31</v>
@@ -809,22 +806,22 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.32300000000000001</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="C10">
-        <v>0.53300000000000003</v>
+        <v>2.347</v>
       </c>
       <c r="D10">
-        <v>0.62</v>
+        <v>0.629</v>
       </c>
       <c r="E10">
-        <v>1.484</v>
+        <v>1.4690000000000001</v>
       </c>
       <c r="F10">
-        <v>2.96</v>
+        <v>4.8369999999999997</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="H10">
         <v>38</v>
@@ -835,25 +832,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.33300000000000002</v>
+        <v>0.378</v>
       </c>
       <c r="C11">
-        <v>0.45900000000000002</v>
+        <v>2.367</v>
       </c>
       <c r="D11">
-        <v>0.60599999999999998</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="E11">
-        <v>1.347</v>
+        <v>1.4059999999999999</v>
       </c>
       <c r="F11">
-        <v>2.746</v>
+        <v>4.7080000000000002</v>
       </c>
       <c r="G11">
         <v>0.87</v>
       </c>
       <c r="H11">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -861,25 +858,25 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.437</v>
+        <v>0.308</v>
       </c>
       <c r="C12">
-        <v>0.436</v>
+        <v>2.415</v>
       </c>
       <c r="D12">
-        <v>0.58299999999999996</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="E12">
-        <v>1.7390000000000001</v>
+        <v>1.6619999999999999</v>
       </c>
       <c r="F12">
-        <v>3.1960000000000002</v>
+        <v>4.9290000000000003</v>
       </c>
       <c r="G12">
         <v>0.85399999999999998</v>
       </c>
       <c r="H12">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -887,22 +884,22 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.78200000000000003</v>
+        <v>0.307</v>
       </c>
       <c r="C13">
-        <v>0.54800000000000004</v>
+        <v>2.4510000000000001</v>
       </c>
       <c r="D13">
-        <v>0.61299999999999999</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="E13">
-        <v>1.6419999999999999</v>
+        <v>1.5620000000000001</v>
       </c>
       <c r="F13">
-        <v>3.5859999999999999</v>
+        <v>4.9340000000000002</v>
       </c>
       <c r="G13">
-        <v>0.78600000000000003</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="H13">
         <v>33</v>
@@ -913,19 +910,19 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.32800000000000001</v>
+        <v>0.753</v>
       </c>
       <c r="C14">
-        <v>0.433</v>
+        <v>2.5579999999999998</v>
       </c>
       <c r="D14">
-        <v>0.60799999999999998</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="E14">
-        <v>1.514</v>
+        <v>1.4950000000000001</v>
       </c>
       <c r="F14">
-        <v>2.8820000000000001</v>
+        <v>5.3650000000000002</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -939,19 +936,19 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.315</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="C15">
-        <v>0.38200000000000001</v>
+        <v>2.95</v>
       </c>
       <c r="D15">
-        <v>0.64</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="E15">
-        <v>1.56</v>
+        <v>1.7130000000000001</v>
       </c>
       <c r="F15">
-        <v>2.8959999999999999</v>
+        <v>5.6769999999999996</v>
       </c>
       <c r="G15">
         <v>0.65400000000000003</v>
@@ -965,19 +962,19 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.51300000000000001</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="C16">
-        <v>0.43</v>
+        <v>2.528</v>
       </c>
       <c r="D16">
-        <v>0.58399999999999996</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="E16">
-        <v>1.7</v>
+        <v>1.7989999999999999</v>
       </c>
       <c r="F16">
-        <v>3.2269999999999999</v>
+        <v>5.282</v>
       </c>
       <c r="G16">
         <v>0.85</v>
@@ -991,22 +988,22 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.33100000000000002</v>
+        <v>1.456</v>
       </c>
       <c r="C17">
-        <v>0.38400000000000001</v>
+        <v>2.3109999999999999</v>
       </c>
       <c r="D17">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="E17">
-        <v>1.198</v>
+        <v>1.194</v>
       </c>
       <c r="F17">
-        <v>2.5129999999999999</v>
+        <v>5.5810000000000004</v>
       </c>
       <c r="G17">
-        <v>0.79</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="H17">
         <v>28</v>
@@ -1017,22 +1014,22 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.45600000000000002</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="C18">
-        <v>0.54500000000000004</v>
+        <v>2.5019999999999998</v>
       </c>
       <c r="D18">
-        <v>0.63200000000000001</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="E18">
-        <v>1.5780000000000001</v>
+        <v>1.89</v>
       </c>
       <c r="F18">
-        <v>3.21</v>
+        <v>5.282</v>
       </c>
       <c r="G18">
-        <v>0.59099999999999997</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="H18">
         <v>28</v>
@@ -1043,22 +1040,22 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.29899999999999999</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="C19">
-        <v>0.49</v>
+        <v>2.415</v>
       </c>
       <c r="D19">
-        <v>0.61899999999999999</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="E19">
-        <v>1.4419999999999999</v>
+        <v>1.7769999999999999</v>
       </c>
       <c r="F19">
-        <v>2.85</v>
+        <v>5.0759999999999996</v>
       </c>
       <c r="G19">
-        <v>0.72199999999999998</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="H19">
         <v>25</v>
@@ -1069,19 +1066,19 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.34</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="C20">
-        <v>0.48899999999999999</v>
+        <v>2.3439999999999999</v>
       </c>
       <c r="D20">
-        <v>0.60399999999999998</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="E20">
-        <v>1.07</v>
+        <v>1.3169999999999999</v>
       </c>
       <c r="F20">
-        <v>2.5030000000000001</v>
+        <v>4.7480000000000002</v>
       </c>
       <c r="G20">
         <v>0.7</v>
@@ -1095,19 +1092,19 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.42699999999999999</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="C21">
-        <v>0.47599999999999998</v>
+        <v>2.3540000000000001</v>
       </c>
       <c r="D21">
-        <v>0.60599999999999998</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="E21">
-        <v>1.4179999999999999</v>
+        <v>1.3129999999999999</v>
       </c>
       <c r="F21">
-        <v>2.927</v>
+        <v>4.6079999999999997</v>
       </c>
       <c r="G21">
         <v>0.86399999999999999</v>
@@ -1121,22 +1118,22 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.32700000000000001</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="C22">
-        <v>0.45700000000000002</v>
+        <v>2.38</v>
       </c>
       <c r="D22">
-        <v>0.61799999999999999</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="E22">
-        <v>1.238</v>
+        <v>1.1910000000000001</v>
       </c>
       <c r="F22">
-        <v>2.641</v>
+        <v>4.47</v>
       </c>
       <c r="G22">
-        <v>0.76900000000000002</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="H22">
         <v>37</v>
@@ -1147,19 +1144,19 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.33400000000000002</v>
+        <v>0.31</v>
       </c>
       <c r="C23">
-        <v>0.44900000000000001</v>
+        <v>2.444</v>
       </c>
       <c r="D23">
-        <v>0.61599999999999999</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E23">
-        <v>1.625</v>
+        <v>1.726</v>
       </c>
       <c r="F23">
-        <v>3.0230000000000001</v>
+        <v>5.1289999999999996</v>
       </c>
       <c r="G23">
         <v>0.68600000000000005</v>
@@ -1173,25 +1170,25 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.501</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="C24">
-        <v>0.33900000000000002</v>
+        <v>2.5110000000000001</v>
       </c>
       <c r="D24">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="E24">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="F24">
+        <v>8.327</v>
+      </c>
+      <c r="G24">
         <v>0.75800000000000001</v>
       </c>
-      <c r="E24">
-        <v>3.1749999999999998</v>
-      </c>
-      <c r="F24">
-        <v>4.7720000000000002</v>
-      </c>
-      <c r="G24">
-        <v>0.75700000000000001</v>
-      </c>
       <c r="H24">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1199,19 +1196,19 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.52300000000000002</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="C25">
-        <v>0.437</v>
+        <v>2.3679999999999999</v>
       </c>
       <c r="D25">
-        <v>0.60599999999999998</v>
+        <v>0.627</v>
       </c>
       <c r="E25">
-        <v>1.516</v>
+        <v>1.7969999999999999</v>
       </c>
       <c r="F25">
-        <v>3.0819999999999999</v>
+        <v>5.1210000000000004</v>
       </c>
       <c r="G25">
         <v>0.9</v>
@@ -1225,25 +1222,25 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.29899999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="C26">
-        <v>0.36399999999999999</v>
+        <v>2.851</v>
       </c>
       <c r="D26">
-        <v>1.633</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="E26">
-        <v>1.546</v>
+        <v>2.5169999999999999</v>
       </c>
       <c r="F26">
-        <v>3.8420000000000001</v>
+        <v>6.3120000000000003</v>
       </c>
       <c r="G26">
-        <v>0.61799999999999999</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H26">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1251,22 +1248,22 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.38300000000000001</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="C27">
-        <v>0.309</v>
+        <v>3.028</v>
       </c>
       <c r="D27">
-        <v>0.66600000000000004</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="E27">
-        <v>1.01</v>
+        <v>0.879</v>
       </c>
       <c r="F27">
-        <v>2.3679999999999999</v>
+        <v>4.8860000000000001</v>
       </c>
       <c r="G27">
-        <v>0.746</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="H27">
         <v>8</v>
@@ -1274,48 +1271,48 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.313</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="C28">
-        <v>0.34599999999999997</v>
+        <v>2.298</v>
       </c>
       <c r="D28">
-        <v>0.62</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="E28">
-        <v>1.8540000000000001</v>
+        <v>1.581</v>
       </c>
       <c r="F28">
-        <v>3.133</v>
+        <v>4.8789999999999996</v>
       </c>
       <c r="G28">
         <v>0.64900000000000002</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.35299999999999998</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="C29">
-        <v>0.58199999999999996</v>
+        <v>2.2490000000000001</v>
       </c>
       <c r="D29">
-        <v>0.58399999999999996</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="E29">
-        <v>1.1599999999999999</v>
+        <v>1.3320000000000001</v>
       </c>
       <c r="F29">
-        <v>2.68</v>
+        <v>4.5140000000000002</v>
       </c>
       <c r="G29">
         <v>0.98099999999999998</v>
@@ -1326,22 +1323,22 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.314</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="C30">
-        <v>0.38600000000000001</v>
+        <v>2.383</v>
       </c>
       <c r="D30">
-        <v>0.61</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="E30">
-        <v>1.1919999999999999</v>
+        <v>1.224</v>
       </c>
       <c r="F30">
-        <v>2.5019999999999998</v>
+        <v>4.5720000000000001</v>
       </c>
       <c r="G30">
         <v>0.755</v>
@@ -1352,25 +1349,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.32100000000000001</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="C31">
-        <v>0.45500000000000002</v>
+        <v>2.4239999999999999</v>
       </c>
       <c r="D31">
-        <v>0.57599999999999996</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="E31">
-        <v>1.93</v>
+        <v>1.3440000000000001</v>
       </c>
       <c r="F31">
-        <v>3.282</v>
+        <v>4.6980000000000004</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="H31">
         <v>27</v>
@@ -1378,22 +1375,22 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.39400000000000002</v>
+        <v>0.31</v>
       </c>
       <c r="C32">
-        <v>0.51800000000000002</v>
+        <v>2.33</v>
       </c>
       <c r="D32">
-        <v>0.63200000000000001</v>
+        <v>0.627</v>
       </c>
       <c r="E32">
-        <v>1.579</v>
+        <v>1.7669999999999999</v>
       </c>
       <c r="F32">
-        <v>3.1219999999999999</v>
+        <v>5.0350000000000001</v>
       </c>
       <c r="G32">
         <v>0.96</v>
@@ -1404,22 +1401,22 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.36099999999999999</v>
+        <v>0.318</v>
       </c>
       <c r="C33">
-        <v>0.40400000000000003</v>
+        <v>2.5249999999999999</v>
       </c>
       <c r="D33">
-        <v>0.60599999999999998</v>
+        <v>0.628</v>
       </c>
       <c r="E33">
-        <v>1.6950000000000001</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="F33">
-        <v>3.0659999999999998</v>
+        <v>5.2569999999999997</v>
       </c>
       <c r="G33">
         <v>0.88300000000000001</v>
@@ -1430,25 +1427,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.33700000000000002</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="C34">
-        <v>0.34100000000000003</v>
+        <v>2.3069999999999999</v>
       </c>
       <c r="D34">
         <v>0.61699999999999999</v>
       </c>
       <c r="E34">
-        <v>1.7430000000000001</v>
+        <v>2.1320000000000001</v>
       </c>
       <c r="F34">
-        <v>3.0390000000000001</v>
+        <v>5.351</v>
       </c>
       <c r="G34">
-        <v>0.89900000000000002</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="H34">
         <v>42</v>
@@ -1456,51 +1453,51 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.38</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="C35">
-        <v>0.44700000000000001</v>
+        <v>2.4630000000000001</v>
       </c>
       <c r="D35">
-        <v>0.622</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="E35">
-        <v>1.5609999999999999</v>
+        <v>1.952</v>
       </c>
       <c r="F35">
-        <v>3.01</v>
+        <v>5.7130000000000001</v>
       </c>
       <c r="G35">
         <v>0.65</v>
       </c>
       <c r="H35">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.375</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="C36">
-        <v>0.46</v>
+        <v>2.4350000000000001</v>
       </c>
       <c r="D36">
-        <v>0.61799999999999999</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="E36">
-        <v>1.76</v>
+        <v>1.659</v>
       </c>
       <c r="F36">
-        <v>3.2130000000000001</v>
+        <v>5.1429999999999998</v>
       </c>
       <c r="G36">
-        <v>0.89500000000000002</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="H36">
         <v>39</v>
@@ -1508,22 +1505,22 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37">
-        <v>0.309</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="C37">
-        <v>0.38300000000000001</v>
+        <v>2.5009999999999999</v>
       </c>
       <c r="D37">
-        <v>0.59</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="E37">
-        <v>1.4</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="F37">
-        <v>2.6819999999999999</v>
+        <v>4.9240000000000004</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1534,25 +1531,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.31900000000000001</v>
+        <v>0.372</v>
       </c>
       <c r="C38">
-        <v>0.48499999999999999</v>
+        <v>2.294</v>
       </c>
       <c r="D38">
-        <v>0.59899999999999998</v>
+        <v>0.65</v>
       </c>
       <c r="E38">
-        <v>2.169</v>
+        <v>3.0409999999999999</v>
       </c>
       <c r="F38">
-        <v>3.5739999999999998</v>
+        <v>6.3570000000000002</v>
       </c>
       <c r="G38">
-        <v>0.76400000000000001</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="H38">
         <v>37</v>
@@ -1560,22 +1557,22 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.30599999999999999</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="C39">
-        <v>0.54500000000000004</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D39">
-        <v>0.64900000000000002</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="E39">
-        <v>1.153</v>
+        <v>1.28</v>
       </c>
       <c r="F39">
-        <v>2.653</v>
+        <v>4.5279999999999996</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1586,48 +1583,48 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.45900000000000002</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="C40">
-        <v>0.53200000000000003</v>
+        <v>2.3639999999999999</v>
       </c>
       <c r="D40">
-        <v>0.58499999999999996</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="E40">
-        <v>1.284</v>
+        <v>1.2809999999999999</v>
       </c>
       <c r="F40">
-        <v>2.8610000000000002</v>
+        <v>4.5510000000000002</v>
       </c>
       <c r="G40">
-        <v>0.91600000000000004</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="H40">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.312</v>
+        <v>2.7280000000000002</v>
       </c>
       <c r="C41">
-        <v>0.372</v>
+        <v>2.36</v>
       </c>
       <c r="D41">
-        <v>0.58199999999999996</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="E41">
-        <v>1.5009999999999999</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="F41">
-        <v>2.7690000000000001</v>
+        <v>7.1390000000000002</v>
       </c>
       <c r="G41">
         <v>0.93500000000000005</v>
@@ -1642,76 +1639,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4A006E-DFB0-477F-8823-F6187DA73BF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602AA6F6-0542-4756-A51F-C05CC4C7EDF5}">
   <dimension ref="B5:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <f>ROUND(AVERAGE(Sheet1!B2:B41),2)</f>
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H7">
         <f>ROUND(AVERAGE(Sheet1!C2:C41),2)</f>
-        <v>0.46</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H9">
         <f>ROUND(AVERAGE(Sheet1!D2:D41),2)</f>
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H11">
         <f>ROUND(AVERAGE(Sheet1!E2:E41),2)</f>
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H13">
         <f>ROUND(AVERAGE(Sheet1!F2:F41),2)</f>
-        <v>3.06</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H15">
         <f>ROUND(AVERAGE(Sheet1!G2:G41),2)</f>
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H17">
         <f>ROUND(AVERAGE(Sheet1!H2:H41),2)</f>
-        <v>29.4</v>
+        <v>29.45</v>
       </c>
     </row>
   </sheetData>
